--- a/examples/input_template.xlsx
+++ b/examples/input_template.xlsx
@@ -1,58 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priyankshukla/Documents/Priyank/Research/Res_Students/PhD/Bodhayan_Prasad/Questions/WP5/Olink_Results_Writeup/Bod_RA_proteomics_paper_v16/antiTNFpredictoR/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulster-my.sharepoint.com/personal/prasad-b_ulster_ac_uk/Documents/WP5_RA/ATRPred/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_D1619B9885E0C6A9EE00EC7FA6424CCFE118B718" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFEBB1CB-9BF8-45CE-AF7F-213CFE25D2A4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23240" windowHeight="12560"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Variables</t>
   </si>
   <si>
     <t>Values</t>
+  </si>
+  <si>
+    <t>FCRL6</t>
+  </si>
+  <si>
+    <t>GDNF</t>
+  </si>
+  <si>
+    <t>KRT19</t>
+  </si>
+  <si>
+    <t>HAOX1</t>
+  </si>
+  <si>
+    <t>REN</t>
+  </si>
+  <si>
+    <t>MMP-1</t>
+  </si>
+  <si>
+    <t>ARNT</t>
+  </si>
+  <si>
+    <t>IL13</t>
+  </si>
+  <si>
+    <t>TRAIL-R2</t>
+  </si>
+  <si>
+    <t>MCP-2</t>
+  </si>
+  <si>
+    <t>CXCL1</t>
+  </si>
+  <si>
+    <t>PRKCQ</t>
+  </si>
+  <si>
+    <t>TNFSF13B</t>
+  </si>
+  <si>
+    <t>RARRES2</t>
+  </si>
+  <si>
+    <t>SPON1</t>
+  </si>
+  <si>
+    <t>hOSCAR</t>
+  </si>
+  <si>
+    <t>DPP10</t>
+  </si>
+  <si>
+    <t>BLDAS</t>
+  </si>
+  <si>
+    <t>MALE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,9 +139,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,19 +420,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.47265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,99 +440,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
